--- a/Financial_Modeling.xlsx
+++ b/Financial_Modeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abnamro-my.sharepoint.com/personal/matias_grinberg_nl_abnamro_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="934" documentId="8_{35221664-1044-4F13-A7B2-72B62B8D5D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A2037C2-6B9E-481F-BD10-50822BEFDC30}"/>
+  <xr:revisionPtr revIDLastSave="988" documentId="8_{35221664-1044-4F13-A7B2-72B62B8D5D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3454DF85-91C0-40D2-9A1E-24205A9EE91A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{24C359CF-4646-49B4-90F1-D13193A34DCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Profit</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>X mes (resto de mi vida)</t>
+  </si>
+  <si>
+    <t>Ret_QQQ</t>
+  </si>
+  <si>
+    <t>Ret_NDX</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -230,7 +236,6 @@
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -573,7 +578,7 @@
   <dimension ref="A1:DW22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +601,7 @@
       </c>
       <c r="E1">
         <f ca="1">(150-F2)/75</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -622,11 +627,16 @@
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:127" ht="18.5" x14ac:dyDescent="0.45">
@@ -635,24 +645,24 @@
       </c>
       <c r="B2" s="10">
         <f ca="1">POWER(BC6/B6,12/BC5)-1</f>
-        <v>0.62371816531458046</v>
+        <v>0.54188498566494681</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="14">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G2" s="3">
         <f ca="1">B6</f>
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2">
         <f ca="1">E2*G2</f>
-        <v>70</v>
+        <v>427.2</v>
       </c>
       <c r="I2">
         <f ca="1">IF(E2&lt;=B1,L2,M2)</f>
@@ -660,461 +670,464 @@
       </c>
       <c r="J2" s="4">
         <f ca="1">(G2-H2*I2)/((1-I2)*H2)</f>
-        <v>0.25</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="K2">
         <f ca="1">IF(E2&lt;=B1,0.5,0.2)</f>
         <v>0.2</v>
       </c>
       <c r="L2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="M2">
         <v>0.2</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:CA2" ca="1" si="0">P6/((40-P4)*12)</f>
-        <v>0.10723400434947888</v>
-      </c>
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11193855875144908</v>
+        <f ca="1">Q6/((50-Q4)*12)</f>
+        <v>0.52279221349259275</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.116842867860995</v>
+        <f t="shared" ref="R2:CC2" ca="1" si="0">R6/((50-R4)*12)</f>
+        <v>0.54292911016949008</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12195542588530199</v>
+        <v>0.56384329252884102</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1272850894079311</v>
+        <v>0.58556483330812681</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13284109290613633</v>
+        <v>0.60812497167451474</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1386330649354133</v>
+        <v>0.63155615859161351</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14467104501010261</v>
+        <v>0.6558921039560266</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15096550121012262</v>
+        <v>0.68116782557297162</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15752734854521241</v>
+        <v>0.70741970004295784</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16436796810942986</v>
+        <v>0.7346855156343417</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17149922706007095</v>
+        <v>0.7630045272195165</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17893349945666356</v>
+        <v>0.79241751335555644</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18668368799723681</v>
+        <v>0.82296683559330153</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19476324669068631</v>
+        <v>0.85469650010218123</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20318620450574398</v>
+        <v>0.88765222170150127</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21196719003882225</v>
+        <v>0.92188149039248646</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22112145724484364</v>
+        <v>0.95743364048908408</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23066491227708624</v>
+        <v>0.99435992244938465</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24061414148407864</v>
+        <v>1.0327135775135239</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25098644061367192</v>
+        <v>1.0725499152580995</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26179984527659794</v>
+        <v>1.1139263941814619</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27307316272410398</v>
+        <v>1.1569027054387413</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28482600499663213</v>
+        <v>1.2015408598501569</v>
       </c>
       <c r="AN2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29707882350299603</v>
+        <v>1.2479052783110103</v>
       </c>
       <c r="AO2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30985294509209982</v>
+        <v>1.2960628857368304</v>
       </c>
       <c r="AP2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3231706096819506</v>
+        <v>1.3460832086823873</v>
       </c>
       <c r="AQ2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33705500951354173</v>
+        <v>1.398038476778765</v>
       </c>
       <c r="AR2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35153033010013141</v>
+        <v>1.4520037281383533</v>
       </c>
       <c r="AS2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36662179294552261</v>
+        <v>1.5080569188835355</v>
       </c>
       <c r="AT2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38235570010816211</v>
+        <v>1.5662790369609831</v>
       </c>
       <c r="AU2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39875948069123318</v>
+        <v>1.6267542204098502</v>
       </c>
       <c r="AV2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41586173934241843</v>
+        <v>1.6895698802587973</v>
       </c>
       <c r="AW2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4336923068506674</v>
+        <v>1.7548168282336765</v>
       </c>
       <c r="AX2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45228229293111916</v>
+        <v>1.822589409464872</v>
       </c>
       <c r="AY2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47166414129331907</v>
+        <v>1.8929856403907539</v>
       </c>
       <c r="AZ2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49187168709202728</v>
+        <v>1.9661073520614512</v>
       </c>
       <c r="BA2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51294021686426217</v>
+        <v>2.0420603390552063</v>
       </c>
       <c r="BB2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53490653106075858</v>
+        <v>2.1209545142279529</v>
       </c>
       <c r="BC2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55780900928475508</v>
+        <v>2.2029040695254705</v>
       </c>
       <c r="BD2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58168767835597046</v>
+        <v>2.288027643096517</v>
       </c>
       <c r="BE2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60658428332278991</v>
+        <v>2.3764484929547671</v>
       </c>
       <c r="BF2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63254236155107502</v>
+        <v>2.468294677447155</v>
       </c>
       <c r="BG2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65960732002363609</v>
+        <v>2.563699242796416</v>
       </c>
       <c r="BH2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68782651599028455</v>
+        <v>2.6628004179961811</v>
       </c>
       <c r="BI2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71724934111451732</v>
+        <v>2.7657418173479975</v>
       </c>
       <c r="BJ2" s="4">
-        <f ca="1">BJ6/((40-BJ4)*12)</f>
-        <v>0.74792730926929407</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1504504287188468</v>
       </c>
       <c r="BK2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77991414814105497</v>
+        <v>3.2722663281367677</v>
       </c>
       <c r="BL2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81326589480811595</v>
+        <v>3.3988040826656487</v>
       </c>
       <c r="BM2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84804099546687006</v>
+        <v>3.5302472184805618</v>
       </c>
       <c r="BN2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88430040948684308</v>
+        <v>3.6667864161405133</v>
       </c>
       <c r="BO2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9221077179836038</v>
+        <v>3.8086197903979468</v>
       </c>
       <c r="BP2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96152923710683558</v>
+        <v>3.9559531809910404</v>
       </c>
       <c r="BQ2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0026341362495534</v>
+        <v>4.1090004548516097</v>
       </c>
       <c r="BR2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0454945613935023</v>
+        <v>4.2679838201785412</v>
       </c>
       <c r="BS2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0901857638152388</v>
+        <v>4.4331341528445076</v>
       </c>
       <c r="BT2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1367862343872721</v>
+        <v>4.6046913356222188</v>
       </c>
       <c r="BU2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1853778437189604</v>
+        <v>4.7829046107357449</v>
       </c>
       <c r="BV2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2360459883926305</v>
+        <v>4.9680329462624497</v>
       </c>
       <c r="BW2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2888797435616417</v>
+        <v>5.1603454169319054</v>
       </c>
       <c r="BX2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3439720221888707</v>
+        <v>5.3601215998898102</v>
       </c>
       <c r="BY2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.401419741216358</v>
+        <v>5.5676519860174318</v>
       </c>
       <c r="BZ2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.461323994969691</v>
+        <v>5.783238407420531</v>
       </c>
       <c r="CA2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5237902361140701</v>
+        <v>6.0071944817260396</v>
       </c>
       <c r="CB2" s="4">
-        <f ca="1">CB6/((40-CB4)*12)</f>
-        <v>1.5889284644930028</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2398460738500878</v>
       </c>
       <c r="CC2" s="4">
-        <f t="shared" ref="CB2:DU2" ca="1" si="1">CC6/((40-CC4)*12)</f>
-        <v>1.6568534241951662</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4815317759273094</v>
       </c>
       <c r="CD2" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7276848092102397</v>
+        <f t="shared" ref="CD2:DV2" ca="1" si="1">CD6/((50-CD4)*12)</f>
+        <v>6.7326034061186961</v>
       </c>
       <c r="CE2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8015474780504441</v>
+        <v>6.9934265270437619</v>
       </c>
       <c r="CF2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8785716777311616</v>
+        <v>7.2643809846123659</v>
       </c>
       <c r="CG2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.958893277521405</v>
+        <v>7.5458614680623155</v>
       </c>
       <c r="CH2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0426540128930579</v>
+        <v>7.8382780920408788</v>
       </c>
       <c r="CI2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1300017401167808</v>
+        <v>8.1420570016016356</v>
       </c>
       <c r="CJ2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2210907019722903</v>
+        <v>8.4576410010226759</v>
       </c>
       <c r="CK2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3160818050614234</v>
+        <v>8.7854902073882002</v>
       </c>
       <c r="CL2" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4151429092340204</v>
+        <f ca="1">CL6/((50-CL4)*12)</f>
+        <v>9.1260827299129463</v>
       </c>
       <c r="CM2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5184491296592388</v>
+        <v>9.4799153760278507</v>
       </c>
       <c r="CN2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6261831520985339</v>
+        <v>9.8475043852858111</v>
       </c>
       <c r="CO2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7385355619611618</v>
+        <v>10.22938619218851</v>
       </c>
       <c r="CP2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8557051877488453</v>
+        <v>10.626118219079073</v>
       </c>
       <c r="CQ2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9778994595231252</v>
+        <v>11.038279700290843</v>
       </c>
       <c r="CR2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1053347830570512</v>
+        <v>11.466472538789921</v>
       </c>
       <c r="CS2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2382369303622194</v>
+        <v>11.911322196598389</v>
       </c>
       <c r="CT2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3768414473128554</v>
+        <v>12.373478620336321</v>
       </c>
       <c r="CU2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5213940791207001</v>
+        <v>12.853617203274002</v>
       </c>
       <c r="CV2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6721512144479531</v>
+        <v>13.35243978534114</v>
       </c>
       <c r="CW2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8293803489805156</v>
+        <v>13.870675692597525</v>
       </c>
       <c r="CX2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9933605693203629</v>
+        <v>14.409082817729475</v>
       </c>
       <c r="CY2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1643830580940646</v>
+        <v>14.968448743198785</v>
       </c>
       <c r="CZ2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3427516212144113</v>
+        <v>15.549591908735694</v>
       </c>
       <c r="DA2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5287832382738147</v>
+        <v>16.153362824934863</v>
       </c>
       <c r="DB2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7228086370917506</v>
+        <v>16.780645334783415</v>
       </c>
       <c r="DC2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.92517289348406</v>
+        <v>17.43235792502313</v>
       </c>
       <c r="DD2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1362360573695369</v>
+        <v>18.109455089324694</v>
       </c>
       <c r="DE2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3563738063789579</v>
+        <v>18.812928745330826</v>
       </c>
       <c r="DF2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5859781281837222</v>
+        <v>19.543809707707247</v>
       </c>
       <c r="DG2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8254580328155727</v>
+        <v>20.303169219425779</v>
       </c>
       <c r="DH2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0752402963056538</v>
+        <v>21.092120543592685</v>
       </c>
       <c r="DI2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3357702370305145</v>
+        <v>21.91182061822775</v>
       </c>
       <c r="DJ2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6075125262146344</v>
+        <v>22.763471776495731</v>
       </c>
       <c r="DK2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.890952034103929</v>
+        <v>23.648323534991654</v>
       </c>
       <c r="DL2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1865947133923562</v>
+        <v>24.567674452785507</v>
       </c>
       <c r="DM2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4949685215546094</v>
+        <v>25.522874064039971</v>
       </c>
       <c r="DN2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8166243838118401</v>
+        <v>26.515324887127381</v>
       </c>
       <c r="DO2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1521371985347173</v>
+        <v>27.546484513289023</v>
       </c>
       <c r="DP2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5021068869689937</v>
+        <v>28.61786777800182</v>
       </c>
       <c r="DQ2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.867159489253206</v>
+        <v>29.7310490183438</v>
       </c>
       <c r="DR2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2479483087865457</v>
+        <v>30.887664419781796</v>
       </c>
       <c r="DS2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6451551070971977</v>
+        <v>32.089414455941601</v>
       </c>
       <c r="DT2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.059491351458034</v>
+        <v>33.338066425063509</v>
       </c>
       <c r="DU2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.491699517597421</v>
+        <v>34.635457086994478</v>
       </c>
       <c r="DV2" s="4">
-        <f ca="1">DV6/((40-DV4)*12)</f>
-        <v>10.942554449958386</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.983495404722326</v>
       </c>
     </row>
     <row r="3" spans="1:127" x14ac:dyDescent="0.35">
@@ -1122,14 +1135,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <f ca="1">IF(E2&lt;=B1,0.4,0.21)</f>
-        <v>0.21</v>
+        <f ca="1">IF(E2&lt;=B1,N2,O2)</f>
+        <v>0.2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="8"/>
       <c r="BJ3">
         <f ca="1">$F$2</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:127" x14ac:dyDescent="0.35">
@@ -1138,7 +1151,7 @@
       </c>
       <c r="B4" s="4">
         <f ca="1">POWER((1+B3),(1/12))-1</f>
-        <v>1.6011867773387367E-2</v>
+        <v>1.5309470499731193E-2</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>8</v>
@@ -2099,503 +2112,503 @@
       </c>
       <c r="B6" s="3">
         <f ca="1">28+F2</f>
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">B6+C8+C3</f>
-        <v>29.200890083004051</v>
+        <v>184.54020579748516</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:BO6" ca="1" si="89">C6+D8+D3</f>
-        <v>30.449851399056687</v>
+        <v>191.32071660549536</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>31.748808223726098</v>
+        <v>198.3503618859576</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>33.099761860695374</v>
+        <v>205.63829551932739</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>34.504793725172469</v>
+        <v>213.19400772461094</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>35.966068550728075</v>
+        <v>221.02733741736148</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>37.485837724502119</v>
+        <v>229.14848502174203</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>39.066442755917514</v>
+        <v>237.56802575333833</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>40.710318884245346</v>
+        <v>246.29692339001861</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>42.419998830579708</v>
+        <v>255.3465445487723</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>44.198116700002871</v>
+        <v>264.72867348711884</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>46.047412039952782</v>
+        <v>274.4555274483605</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>47.970734061045739</v>
+        <v>284.53977257066174</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>49.971046026857159</v>
+        <v>294.99454038067159</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>52.051429819423824</v>
+        <v>305.83344489316676</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>54.215090687501679</v>
+        <v>317.07060033898222</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>56.465362184894822</v>
+        <v>328.72063954431434</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>58.805711306464168</v>
+        <v>340.79873298532982</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>61.239743829728845</v>
+        <v>353.32060854289307</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>63.771209870290114</v>
+        <v>366.30257198313586</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>66.404009659637097</v>
+        <v>379.76152819053942</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>69.142199554236157</v>
+        <v>393.71500318117756</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>71.989998285162073</v>
+        <v>408.18116692478668</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>74.95179345790001</v>
+        <v>423.17885700538079</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>78.032148312332282</v>
+        <v>438.72760315122201</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>81.235808753325259</v>
+        <v>454.8476526660894</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>84.567710662748269</v>
+        <v>471.55999679496176</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>88.032987504190217</v>
+        <v>488.8863980584477</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>91.636978232090541</v>
+        <v>506.84941859155725</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>95.385235517470008</v>
+        <v>525.47244952371727</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>99.283534302934797</v>
+        <v>544.77974143828885</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>103.33788070013463</v>
+        <v>564.79643595125049</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>107.55452124338315</v>
+        <v>585.54859845016802</v>
       </c>
       <c r="AJ6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>111.93995251369768</v>
+        <v>607.06325203608435</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>116.50093114808608</v>
+        <v>629.36841271252592</v>
       </c>
       <c r="AL6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>121.24448424950216</v>
+        <v>652.49312586745009</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>126.17792021350805</v>
+        <v>676.46750409563833</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>131.30883998832425</v>
+        <v>701.32276641078784</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>136.64514878561602</v>
+        <v>727.09127889836179</v>
       </c>
       <c r="AP6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>142.19506826005826</v>
+        <v>753.80659686213687</v>
       </c>
       <c r="AQ6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>147.96714917644482</v>
+        <v>781.50350851932967</v>
       </c>
       <c r="AR6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>153.97028458385756</v>
+        <v>810.2180803012011</v>
       </c>
       <c r="AS6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>160.21372351719339</v>
+        <v>839.98770381812926</v>
       </c>
       <c r="AT6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>166.70708524715869</v>
+        <v>870.85114455030669</v>
       </c>
       <c r="AU6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>173.46037410068644</v>
+        <v>902.8485923274668</v>
       </c>
       <c r="AV6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>180.48399487460961</v>
+        <v>936.0217136633737</v>
       </c>
       <c r="AW6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>187.78876886633898</v>
+        <v>970.41370601322308</v>
       </c>
       <c r="AX6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>195.38595054624346</v>
+        <v>1006.0693540246093</v>
       </c>
       <c r="AY6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>203.28724489742052</v>
+        <v>1043.0350878553054</v>
       </c>
       <c r="AZ6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>211.50482544957174</v>
+        <v>1081.3590436337981</v>
       </c>
       <c r="BA6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>220.05135303476848</v>
+        <v>1121.0911261413082</v>
       </c>
       <c r="BB6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>228.93999529400466</v>
+        <v>1162.2830737969182</v>
       </c>
       <c r="BC6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>238.18444696459042</v>
+        <v>1204.9885260304322</v>
       </c>
       <c r="BD6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>247.79895097964339</v>
+        <v>1249.2630931306983</v>
       </c>
       <c r="BE6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>257.79832041218572</v>
+        <v>1295.164428660348</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>268.19796129765581</v>
+        <v>1342.7523045312523</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>279.01389636999806</v>
+        <v>1392.0886888384539</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>290.26278974790006</v>
+        <v>1443.2378265539301</v>
       </c>
       <c r="BI6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>301.96197260921178</v>
+        <v>1496.2663231852666</v>
       </c>
       <c r="BJ6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>314.12946989310353</v>
+        <v>1701.2432315081774</v>
       </c>
       <c r="BK6" s="2">
         <f ca="1">BJ6+BK8+BK3</f>
-        <v>326.78402807110206</v>
+        <v>1763.7515508657177</v>
       </c>
       <c r="BL6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>339.94514402979246</v>
+        <v>1828.556596474119</v>
       </c>
       <c r="BM6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>353.6330951096848</v>
+        <v>1895.7427563240617</v>
       </c>
       <c r="BN6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>367.86897034652674</v>
+        <v>1965.3975190513152</v>
       </c>
       <c r="BO6" s="2">
         <f t="shared" ca="1" si="89"/>
-        <v>382.67470296319556</v>
+        <v>2037.6115878629016</v>
       </c>
       <c r="BP6" s="2">
         <f t="shared" ref="BP6:DV6" ca="1" si="90">BO6+BP8+BP3</f>
-        <v>398.07310416222992</v>
+        <v>2112.4789986492156</v>
       </c>
       <c r="BQ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>414.08789827106557</v>
+        <v>2190.0972424359079</v>
       </c>
       <c r="BR6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>430.74375929412298</v>
+        <v>2270.5673923349841</v>
       </c>
       <c r="BS6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>448.06634892806312</v>
+        <v>2353.9942351604336</v>
       </c>
       <c r="BT6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>466.08235609878153</v>
+        <v>2440.4864078797759</v>
       </c>
       <c r="BU6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>484.81953808105482</v>
+        <v>2530.1565390792089</v>
       </c>
       <c r="BV6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>504.30676326419325</v>
+        <v>2623.1213956265733</v>
       </c>
       <c r="BW6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>524.5740556295882</v>
+        <v>2719.5020347231143</v>
       </c>
       <c r="BX6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>545.65264100868148</v>
+        <v>2819.4239615420402</v>
       </c>
       <c r="BY6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>567.57499519262501</v>
+        <v>2923.0172926591517</v>
       </c>
       <c r="BZ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>590.37489396775516</v>
+        <v>3030.4169254883582</v>
       </c>
       <c r="CA6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>614.08746515397024</v>
+        <v>3141.7627139427186</v>
       </c>
       <c r="CB6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>638.74924272618716</v>
+        <v>3257.1996505497459</v>
       </c>
       <c r="CC6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>664.39822310226168</v>
+        <v>3376.8780552581284</v>
       </c>
       <c r="CD6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>691.07392368409592</v>
+        <v>3500.953771181722</v>
       </c>
       <c r="CE6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>718.81744374212724</v>
+        <v>3629.5883675357122</v>
       </c>
       <c r="CF6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>747.67152773700229</v>
+        <v>3762.9493500292056</v>
       </c>
       <c r="CG6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>777.68063117599775</v>
+        <v>3901.2103789882171</v>
       </c>
       <c r="CH6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>808.89098910565099</v>
+        <v>4044.5514954930936</v>
       </c>
       <c r="CI6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>841.35068734612844</v>
+        <v>4193.1593558248424</v>
       </c>
       <c r="CJ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>875.10973657708234</v>
+        <v>4347.2274745256555</v>
       </c>
       <c r="CK6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>910.22014938913946</v>
+        <v>4506.9564763901471</v>
       </c>
       <c r="CL6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>946.73602041973595</v>
+        <v>4672.5543577154285</v>
       </c>
       <c r="CM6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>984.71360969676232</v>
+        <v>4844.2367571502318</v>
       </c>
       <c r="CN6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1024.2114293184281</v>
+        <v>5022.2272364957635</v>
       </c>
       <c r="CO6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1065.2903336028919</v>
+        <v>5206.7575718239514</v>
       </c>
       <c r="CP6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1108.013612846552</v>
+        <v>5398.0680552921694</v>
       </c>
       <c r="CQ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1152.4470908354494</v>
+        <v>5596.4078080474574</v>
       </c>
       <c r="CR6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1198.6592262600218</v>
+        <v>5802.0351046277001</v>
       </c>
       <c r="CS6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1246.7212181894545</v>
+        <v>6015.2177092821867</v>
       </c>
       <c r="CT6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1296.7071157681364</v>
+        <v>6236.2332246495062</v>
       </c>
       <c r="CU6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1348.6939323032282</v>
+        <v>6465.3694532468226</v>
       </c>
       <c r="CV6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1402.761763919118</v>
+        <v>6702.924772241252</v>
       </c>
       <c r="CW6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1458.9939129615764</v>
+        <v>6949.2085219913597</v>
       </c>
       <c r="CX6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1517.4770163417379</v>
+        <v>7204.5414088647376</v>
       </c>
       <c r="CY6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1578.3011790176506</v>
+        <v>7469.2559228561931</v>
       </c>
       <c r="CZ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1641.5601128190476</v>
+        <v>7743.6967705503757</v>
       </c>
       <c r="DA6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1707.3512808292282</v>
+        <v>8028.2213239926268</v>
       </c>
       <c r="DB6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1775.7760475464981</v>
+        <v>8323.2000860525732</v>
       </c>
       <c r="DC6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1846.9398350565225</v>
+        <v>8629.0171728864498</v>
       </c>
       <c r="DD6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1920.9522854562067</v>
+        <v>8946.0708141263985</v>
       </c>
       <c r="DE6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>1997.9274297793513</v>
+        <v>9274.7738714480965</v>
       </c>
       <c r="DF6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2077.9838636843447</v>
+        <v>9615.5543761919653</v>
       </c>
       <c r="DG6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2161.2449301745773</v>
+        <v>9968.8560867380584</v>
       </c>
       <c r="DH6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2247.838909633092</v>
+        <v>10335.139066360416</v>
       </c>
       <c r="DI6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2337.8992174642599</v>
+        <v>10714.88028231337</v>
       </c>
       <c r="DJ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2431.5646096469854</v>
+        <v>11108.574226929917</v>
       </c>
       <c r="DK6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2528.9793965161421</v>
+        <v>11516.733561540936</v>
       </c>
       <c r="DL6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2630.2936651016025</v>
+        <v>11939.889784053756</v>
       </c>
       <c r="DM6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2735.6635103674325</v>
+        <v>12378.593921059386</v>
       </c>
       <c r="DN6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2845.2512757075096</v>
+        <v>12833.417245369652</v>
       </c>
       <c r="DO6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>2959.2258030681023</v>
+        <v>13304.952019918599</v>
       </c>
       <c r="DP6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3077.7626930827755</v>
+        <v>13793.812268996877</v>
       </c>
       <c r="DQ6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3201.0445756204076</v>
+        <v>14300.634577823368</v>
       </c>
       <c r="DR6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3329.2613911631565</v>
+        <v>14826.078921495262</v>
       </c>
       <c r="DS6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3462.6106834478937</v>
+        <v>15370.829524396026</v>
       </c>
       <c r="DT6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3601.297903821976</v>
+        <v>15935.595751180357</v>
       </c>
       <c r="DU6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3745.5367277822793</v>
+        <v>16521.113030496366</v>
       </c>
       <c r="DV6" s="2">
         <f t="shared" ca="1" si="90"/>
-        <v>3895.5493841851858</v>
+        <v>17128.143812647828</v>
       </c>
       <c r="DW6" s="10"/>
     </row>
@@ -2605,503 +2618,503 @@
       </c>
       <c r="B7" s="3">
         <f ca="1">(B6+$E$1)*$E$2</f>
-        <v>75</v>
+        <v>427.2</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:BC7" ca="1" si="91">(C6+$E$1)*$E$2</f>
-        <v>78.002225207510122</v>
+        <v>442.89649391396438</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>81.124628497641709</v>
+        <v>459.16971985318884</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>84.372020559315246</v>
+        <v>476.0408685262982</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>87.749404651738431</v>
+        <v>493.53190924638568</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>91.261984312931176</v>
+        <v>511.66561853906626</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>94.915171376820183</v>
+        <v>530.46560980166748</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>98.714594311255297</v>
+        <v>549.9563640521809</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>102.66610688979378</v>
+        <v>570.16326180801195</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>106.77579721061336</v>
+        <v>591.11261613604461</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>111.04999707644927</v>
+        <v>612.83170691705345</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>115.49529175000717</v>
+        <v>635.34881636908517</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>120.11853009988195</v>
+        <v>658.6932658760652</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>124.92683515261434</v>
+        <v>682.89545416958811</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>129.92761506714291</v>
+        <v>707.98689691361176</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>135.12857454855956</v>
+        <v>734.00026774360015</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>140.53772671875419</v>
+        <v>760.9694408135573</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>146.16340546223705</v>
+        <v>788.92953490635443</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>152.01427826616043</v>
+        <v>817.91695916479159</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>158.09935957432211</v>
+        <v>847.96946050294332</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>164.42802467572528</v>
+        <v>879.12617275952607</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>171.01002414909274</v>
+        <v>911.42766765729459</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>177.85549888559041</v>
+        <v>944.91600763482609</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>184.97499571290518</v>
+        <v>979.63480061948803</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>192.37948364475002</v>
+        <v>1015.6292568129138</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>200.08037078083072</v>
+        <v>1052.9462475629327</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>208.08952188331315</v>
+        <v>1091.6343663986145</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>216.41927665687066</v>
+        <v>1131.7439923079082</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>225.08246876047554</v>
+        <v>1173.3273553402744</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>234.09244558022635</v>
+        <v>1216.4386046197374</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>243.46308879367501</v>
+        <v>1261.1338788569215</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>253.208835757337</v>
+        <v>1307.4713794518932</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>263.34470175033658</v>
+        <v>1355.5114462830011</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>273.88630310845787</v>
+        <v>1405.3166362804031</v>
       </c>
       <c r="AJ7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>284.84988128424419</v>
+        <v>1456.9518048866023</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>296.2523278702152</v>
+        <v>1510.4841905100623</v>
       </c>
       <c r="AL7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>308.11121062375543</v>
+        <v>1565.9835020818803</v>
       </c>
       <c r="AM7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>320.44480053377015</v>
+        <v>1623.522009829532</v>
       </c>
       <c r="AN7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>333.27209997081064</v>
+        <v>1683.1746393858907</v>
       </c>
       <c r="AO7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>346.61287196404004</v>
+        <v>1745.0190693560683</v>
       </c>
       <c r="AP7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>360.48767065014567</v>
+        <v>1809.1358324691284</v>
       </c>
       <c r="AQ7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>374.91787294111202</v>
+        <v>1875.6084204463912</v>
       </c>
       <c r="AR7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>389.92571145964394</v>
+        <v>1944.5233927228826</v>
       </c>
       <c r="AS7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>405.53430879298344</v>
+        <v>2015.9704891635101</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>421.76771311789673</v>
+        <v>2090.0427469207361</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>438.65093525171608</v>
+        <v>2166.8366215859201</v>
       </c>
       <c r="AV7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>456.20998718652402</v>
+        <v>2246.4521127920966</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>474.47192216584745</v>
+        <v>2328.9928944317353</v>
       </c>
       <c r="AX7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>493.46487636560869</v>
+        <v>2414.5664496590621</v>
       </c>
       <c r="AY7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>513.21811224355133</v>
+        <v>2503.2842108527329</v>
       </c>
       <c r="AZ7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>533.76206362392941</v>
+        <v>2595.2617047211156</v>
       </c>
       <c r="BA7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>555.12838258692125</v>
+        <v>2690.6187027391397</v>
       </c>
       <c r="BB7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>577.34998823501166</v>
+        <v>2789.4793771126037</v>
       </c>
       <c r="BC7" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>600.46111741147604</v>
+        <v>2891.9724624730375</v>
       </c>
       <c r="BD7" s="3">
         <f t="shared" ref="BD7:CO7" ca="1" si="92">(BD6+$E$1)*$E$2</f>
-        <v>624.49737744910851</v>
+        <v>2998.231423513676</v>
       </c>
       <c r="BE7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>649.49580103046424</v>
+        <v>3108.3946287848353</v>
       </c>
       <c r="BF7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>675.49490324413955</v>
+        <v>3222.6055308750056</v>
       </c>
       <c r="BG7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>702.53474092499516</v>
+        <v>3341.0128532122894</v>
       </c>
       <c r="BH7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>730.65697436975017</v>
+        <v>3463.770783729432</v>
       </c>
       <c r="BI7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>759.90493152302952</v>
+        <v>3591.0391756446397</v>
       </c>
       <c r="BJ7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>790.32367473275883</v>
+        <v>4082.9837556196253</v>
       </c>
       <c r="BK7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>821.96007017775514</v>
+        <v>4233.0037220777222</v>
       </c>
       <c r="BL7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>854.8628600744812</v>
+        <v>4388.5358315378853</v>
       </c>
       <c r="BM7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>889.08273777421198</v>
+        <v>4549.7826151777481</v>
       </c>
       <c r="BN7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>924.67242586631687</v>
+        <v>4716.954045723156</v>
       </c>
       <c r="BO7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>961.68675740798892</v>
+        <v>4890.2678108709633</v>
       </c>
       <c r="BP7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1000.1827604055748</v>
+        <v>5069.949596758117</v>
       </c>
       <c r="BQ7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1040.2197456776639</v>
+        <v>5256.2333818461784</v>
       </c>
       <c r="BR7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1081.8593982353075</v>
+        <v>5449.3617416039615</v>
       </c>
       <c r="BS7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1125.1658723201579</v>
+        <v>5649.5861643850403</v>
       </c>
       <c r="BT7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1170.2058902469539</v>
+        <v>5857.167378911462</v>
       </c>
       <c r="BU7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1217.048845202637</v>
+        <v>6072.3756937901007</v>
       </c>
       <c r="BV7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1265.7669081604831</v>
+        <v>6295.4913495037754</v>
       </c>
       <c r="BW7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1316.4351390739705</v>
+        <v>6526.8048833354742</v>
       </c>
       <c r="BX7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1369.1316025217038</v>
+        <v>6766.6175077008966</v>
       </c>
       <c r="BY7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1423.9374879815625</v>
+        <v>7015.241502381964</v>
       </c>
       <c r="BZ7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1480.9372349193879</v>
+        <v>7273.0006211720593</v>
       </c>
       <c r="CA7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1540.2186628849256</v>
+        <v>7540.230513462524</v>
       </c>
       <c r="CB7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1601.873106815468</v>
+        <v>7817.2791613193895</v>
       </c>
       <c r="CC7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1665.9955577556543</v>
+        <v>8104.5073326195079</v>
       </c>
       <c r="CD7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1732.6848092102398</v>
+        <v>8402.2890508361324</v>
       </c>
       <c r="CE7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1802.043609355318</v>
+        <v>8711.0120820857082</v>
       </c>
       <c r="CF7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1874.1788193425057</v>
+        <v>9031.0784400700923</v>
       </c>
       <c r="CG7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>1949.2015779399944</v>
+        <v>9362.9049095717201</v>
       </c>
       <c r="CH7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2027.2274727641275</v>
+        <v>9706.9235891834251</v>
       </c>
       <c r="CI7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2108.3767183653213</v>
+        <v>10063.582453979621</v>
       </c>
       <c r="CJ7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2192.7743414427059</v>
+        <v>10433.345938861572</v>
       </c>
       <c r="CK7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2280.5503734728486</v>
+        <v>10816.695543336353</v>
       </c>
       <c r="CL7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2371.8400510493398</v>
+        <v>11214.130458517027</v>
       </c>
       <c r="CM7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2466.7840242419056</v>
+        <v>11626.168217160555</v>
       </c>
       <c r="CN7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2565.5285732960701</v>
+        <v>12053.345367589833</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>2668.2258340072299</v>
+        <v>12496.218172377483</v>
       </c>
       <c r="CP7" s="3">
         <f t="shared" ref="CP7:DV7" ca="1" si="93">(CP6+$E$1)*$E$2</f>
-        <v>2775.0340321163799</v>
+        <v>12955.363332701207</v>
       </c>
       <c r="CQ7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>2886.1177270886237</v>
+        <v>13431.378739313897</v>
       </c>
       <c r="CR7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3001.6480656500544</v>
+        <v>13924.884251106479</v>
       </c>
       <c r="CS7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3121.8030454736363</v>
+        <v>14436.522502277248</v>
       </c>
       <c r="CT7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3246.7677894203412</v>
+        <v>14966.959739158814</v>
       </c>
       <c r="CU7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3376.7348307580705</v>
+        <v>15516.886687792374</v>
       </c>
       <c r="CV7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3511.9044097977949</v>
+        <v>16087.019453379004</v>
       </c>
       <c r="CW7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3652.4847824039407</v>
+        <v>16678.100452779261</v>
       </c>
       <c r="CX7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3798.6925408543448</v>
+        <v>17290.899381275369</v>
       </c>
       <c r="CY7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>3950.7529475441265</v>
+        <v>17926.214214854863</v>
       </c>
       <c r="CZ7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4108.9002820476189</v>
+        <v>18584.872249320902</v>
       </c>
       <c r="DA7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4273.3782020730705</v>
+        <v>19267.731177582304</v>
       </c>
       <c r="DB7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4444.440118866245</v>
+        <v>19975.680206526176</v>
       </c>
       <c r="DC7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4622.3495876413062</v>
+        <v>20709.64121492748</v>
       </c>
       <c r="DD7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4807.3807136405167</v>
+        <v>21470.569953903356</v>
       </c>
       <c r="DE7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>4999.8185744483781</v>
+        <v>22259.457291475432</v>
       </c>
       <c r="DF7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>5199.9596592108619</v>
+        <v>23077.330502860717</v>
       </c>
       <c r="DG7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>5408.1123254364429</v>
+        <v>23925.254608171341</v>
       </c>
       <c r="DH7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>5624.5972740827301</v>
+        <v>24804.333759264999</v>
       </c>
       <c r="DI7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>5849.7480436606493</v>
+        <v>25715.712677552088</v>
       </c>
       <c r="DJ7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>6083.9115241174641</v>
+        <v>26660.5781446318</v>
       </c>
       <c r="DK7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>6327.4484912903554</v>
+        <v>27640.160547698244</v>
       </c>
       <c r="DL7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>6580.7341627540063</v>
+        <v>28655.735481729014</v>
       </c>
       <c r="DM7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>6844.1587759185813</v>
+        <v>29708.625410542525</v>
       </c>
       <c r="DN7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>7118.1281892687739</v>
+        <v>30800.201388887162</v>
       </c>
       <c r="DO7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>7403.0645076702558</v>
+        <v>31931.884847804635</v>
       </c>
       <c r="DP7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>7699.4067327069388</v>
+        <v>33105.149445592506</v>
       </c>
       <c r="DQ7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>8007.6114390510193</v>
+        <v>34321.522986776079</v>
       </c>
       <c r="DR7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>8328.153477907892</v>
+        <v>35582.589411588626</v>
       </c>
       <c r="DS7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>8661.5267086197346</v>
+        <v>36889.99085855046</v>
       </c>
       <c r="DT7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>9008.2447595549402</v>
+        <v>38245.429802832856</v>
       </c>
       <c r="DU7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>9368.841819455698</v>
+        <v>39650.671273191278</v>
       </c>
       <c r="DV7" s="3">
         <f t="shared" ca="1" si="93"/>
-        <v>9743.8734604629644</v>
+        <v>41107.545150354788</v>
       </c>
     </row>
     <row r="8" spans="1:127" x14ac:dyDescent="0.35">
@@ -3110,499 +3123,499 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:AP8" ca="1" si="94">B7*$B$4</f>
-        <v>1.2008900830040525</v>
+        <v>6.5402057974851653</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.2489613160526352</v>
+        <v>6.780510808010213</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.2989568246694116</v>
+        <v>7.0296452804622307</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.3509536369692761</v>
+        <v>7.2879336333697777</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.405031864477098</v>
+        <v>7.5557122052835535</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.4612748255556061</v>
+        <v>7.8333296927505485</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.5197691737740462</v>
+        <v>8.1211476043805462</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.5806050314153965</v>
+        <v>8.4195407315962925</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.6438761283278318</v>
+        <v>8.7288976366802711</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.7096799463343648</v>
+        <v>9.0496211587537037</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.7781178694231594</v>
+        <v>9.3821289383465416</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.8492953399499117</v>
+        <v>9.7268539612416394</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>1.9233220210929602</v>
+        <v>10.084245122301216</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.0003119658114219</v>
+        <v>10.454767810009844</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.0803837925666646</v>
+        <v>10.838904512495168</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.1636608680778533</v>
+        <v>11.237155445815443</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.250271497393141</v>
+        <v>11.650039205332098</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.3403491215693446</v>
+        <v>12.078093441015483</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.434032523264674</v>
+        <v>12.52187555756322</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.5314660405612694</v>
+        <v>12.981963440242785</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.6327997893469886</v>
+        <v>13.458956207403553</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.7381898945990537</v>
+        <v>13.953474990638156</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.8477987309259176</v>
+        <v>14.466163743609144</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>2.9617951727379328</v>
+        <v>14.997690080594101</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.080354854432275</v>
+        <v>15.54874614584122</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.2036604409929788</v>
+        <v>16.120049514867375</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.3319019094230073</v>
+        <v>16.712344128872338</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.4652768414419524</v>
+        <v>17.326401263485927</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.6039907279003272</v>
+        <v>17.96302053310955</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.7482572853794625</v>
+        <v>18.623030932160045</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>3.8982987854647919</v>
+        <v>19.307291914571611</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.054346397199839</v>
+        <v>20.016694512961607</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.2166405432485217</v>
+        <v>20.752162498917567</v>
       </c>
       <c r="AJ8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.3854312703145206</v>
+        <v>21.514653585916303</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.5609786343884071</v>
+        <v>22.305160676441556</v>
       </c>
       <c r="AL8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.7435531014160865</v>
+        <v>23.124713154924148</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>4.9334359640058771</v>
+        <v>23.974378228188286</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>5.130919774816217</v>
+        <v>24.855262315149513</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>5.336308797291756</v>
+        <v>25.768512487573982</v>
       </c>
       <c r="AP8" s="2">
         <f t="shared" ca="1" si="94"/>
-        <v>5.5499194744422544</v>
+        <v>26.715317963775107</v>
       </c>
       <c r="AQ8" s="2">
         <f t="shared" ref="AQ8" ca="1" si="95">AP7*$B$4</f>
-        <v>5.772080916386547</v>
+        <v>27.696911657192754</v>
       </c>
       <c r="AR8" s="2">
         <f t="shared" ref="AR8" ca="1" si="96">AQ7*$B$4</f>
-        <v>6.0031354074127314</v>
+        <v>28.714571781871445</v>
       </c>
       <c r="AS8" s="2">
         <f t="shared" ref="AS8" ca="1" si="97">AR7*$B$4</f>
-        <v>6.2434389333358142</v>
+        <v>29.769623516928185</v>
       </c>
       <c r="AT8" s="2">
         <f t="shared" ref="AT8" ca="1" si="98">AS7*$B$4</f>
-        <v>6.4933617299652928</v>
+        <v>30.86344073217742</v>
       </c>
       <c r="AU8" s="2">
         <f t="shared" ref="AU8" ca="1" si="99">AT7*$B$4</f>
-        <v>6.7532888535277387</v>
+        <v>31.997447777160158</v>
       </c>
       <c r="AV8" s="2">
         <f t="shared" ref="AV8" ca="1" si="100">AU7*$B$4</f>
-        <v>7.0236207739231808</v>
+        <v>33.173121335906842</v>
       </c>
       <c r="AW8" s="2">
         <f t="shared" ref="AW8" ca="1" si="101">AV7*$B$4</f>
-        <v>7.3047739917293679</v>
+        <v>34.39199234984941</v>
       </c>
       <c r="AX8" s="2">
         <f t="shared" ref="AX8" ca="1" si="102">AW7*$B$4</f>
-        <v>7.5971816799044918</v>
+        <v>35.655648011386212</v>
       </c>
       <c r="AY8" s="2">
         <f t="shared" ref="AY8" ca="1" si="103">AX7*$B$4</f>
-        <v>7.9012943511770715</v>
+        <v>36.965733830696095</v>
       </c>
       <c r="AZ8" s="2">
         <f t="shared" ref="AZ8" ca="1" si="104">AY7*$B$4</f>
-        <v>8.2175805521512206</v>
+        <v>38.323955778492795</v>
       </c>
       <c r="BA8" s="2">
         <f t="shared" ref="BA8" ca="1" si="105">AZ7*$B$4</f>
-        <v>8.5465275851967331</v>
+        <v>39.732082507510007</v>
       </c>
       <c r="BB8" s="2">
         <f t="shared" ref="BB8" ca="1" si="106">BA7*$B$4</f>
-        <v>8.8886422592361765</v>
+        <v>41.191947655609873</v>
       </c>
       <c r="BC8" s="2">
         <f t="shared" ref="BC8" ca="1" si="107">BB7*$B$4</f>
-        <v>9.2444516705857591</v>
+        <v>42.705452233513952</v>
       </c>
       <c r="BD8" s="2">
         <f t="shared" ref="BD8" ca="1" si="108">BC7*$B$4</f>
-        <v>9.6145040150529812</v>
+        <v>44.274567100265941</v>
       </c>
       <c r="BE8" s="2">
         <f t="shared" ref="BE8" ca="1" si="109">BD7*$B$4</f>
-        <v>9.9993694325423075</v>
+        <v>45.901335529649678</v>
       </c>
       <c r="BF8" s="2">
         <f t="shared" ref="BF8" ca="1" si="110">BE7*$B$4</f>
-        <v>10.399640885470104</v>
+        <v>47.587875870904327</v>
       </c>
       <c r="BG8" s="2">
         <f t="shared" ref="BG8" ca="1" si="111">BF7*$B$4</f>
-        <v>10.815935072342256</v>
+        <v>49.336384307201477</v>
       </c>
       <c r="BH8" s="2">
         <f t="shared" ref="BH8" ca="1" si="112">BG7*$B$4</f>
-        <v>11.248893377901974</v>
+        <v>51.149137715476286</v>
       </c>
       <c r="BI8" s="2">
         <f t="shared" ref="BI8" ca="1" si="113">BH7*$B$4</f>
-        <v>11.699182861311723</v>
+        <v>53.02849663133653</v>
       </c>
       <c r="BJ8" s="2">
         <f t="shared" ref="BJ8" ca="1" si="114">BI7*$B$4</f>
-        <v>12.167497283891731</v>
+        <v>54.976908322910631</v>
       </c>
       <c r="BK8" s="2">
         <f t="shared" ref="BK8" ca="1" si="115">BJ7*$B$4</f>
-        <v>12.65455817799854</v>
+        <v>62.508319357540323</v>
       </c>
       <c r="BL8" s="2">
         <f t="shared" ref="BL8" ca="1" si="116">BK7*$B$4</f>
-        <v>13.161115958690417</v>
+        <v>64.80504560840123</v>
       </c>
       <c r="BM8" s="2">
         <f t="shared" ref="BM8" ca="1" si="117">BL7*$B$4</f>
-        <v>13.68795107989234</v>
+        <v>67.186159849942555</v>
       </c>
       <c r="BN8" s="2">
         <f t="shared" ref="BN8" ca="1" si="118">BM7*$B$4</f>
-        <v>14.235875236841917</v>
+        <v>69.654762727253569</v>
       </c>
       <c r="BO8" s="2">
         <f t="shared" ref="BO8" ca="1" si="119">BN7*$B$4</f>
-        <v>14.805732616668799</v>
+        <v>72.214068811586358</v>
       </c>
       <c r="BP8" s="2">
         <f t="shared" ref="BP8" ca="1" si="120">BO7*$B$4</f>
-        <v>15.398401199034373</v>
+        <v>74.867410786314053</v>
       </c>
       <c r="BQ8" s="2">
         <f t="shared" ref="BQ8" ca="1" si="121">BP7*$B$4</f>
-        <v>16.014794108835641</v>
+        <v>77.618243786692446</v>
       </c>
       <c r="BR8" s="2">
         <f t="shared" ref="BR8" ca="1" si="122">BQ7*$B$4</f>
-        <v>16.65586102305739</v>
+        <v>80.470149899076389</v>
       </c>
       <c r="BS8" s="2">
         <f t="shared" ref="BS8" ca="1" si="123">BR7*$B$4</f>
-        <v>17.322589633940169</v>
+        <v>83.42684282544964</v>
       </c>
       <c r="BT8" s="2">
         <f t="shared" ref="BT8" ca="1" si="124">BS7*$B$4</f>
-        <v>18.016007170718421</v>
+        <v>86.492172719342278</v>
       </c>
       <c r="BU8" s="2">
         <f t="shared" ref="BU8" ca="1" si="125">BT7*$B$4</f>
-        <v>18.737181982273274</v>
+        <v>89.670131199432902</v>
       </c>
       <c r="BV8" s="2">
         <f t="shared" ref="BV8" ca="1" si="126">BU7*$B$4</f>
-        <v>19.487225183138413</v>
+        <v>92.964856547364278</v>
       </c>
       <c r="BW8" s="2">
         <f t="shared" ref="BW8" ca="1" si="127">BV7*$B$4</f>
-        <v>20.267292365395008</v>
+        <v>96.380639096540961</v>
       </c>
       <c r="BX8" s="2">
         <f t="shared" ref="BX8" ca="1" si="128">BW7*$B$4</f>
-        <v>21.078585379093226</v>
+        <v>99.921926818925925</v>
       </c>
       <c r="BY8" s="2">
         <f t="shared" ref="BY8" ca="1" si="129">BX7*$B$4</f>
-        <v>21.922354183943472</v>
+        <v>103.59333111711148</v>
       </c>
       <c r="BZ8" s="2">
         <f t="shared" ref="BZ8" ca="1" si="130">BY7*$B$4</f>
-        <v>22.799898775130142</v>
+        <v>107.39963282920661</v>
       </c>
       <c r="CA8" s="2">
         <f t="shared" ref="CA8" ca="1" si="131">BZ7*$B$4</f>
-        <v>23.712571186215143</v>
+        <v>111.34578845436027</v>
       </c>
       <c r="CB8" s="2">
         <f t="shared" ref="CB8" ca="1" si="132">CA7*$B$4</f>
-        <v>24.66177757221692</v>
+        <v>115.43693660702749</v>
       </c>
       <c r="CC8" s="2">
         <f t="shared" ref="CC8" ca="1" si="133">CB7*$B$4</f>
-        <v>25.648980376074491</v>
+        <v>119.67840470838259</v>
       </c>
       <c r="CD8" s="2">
         <f t="shared" ref="CD8" ca="1" si="134">CC7*$B$4</f>
-        <v>26.675700581834274</v>
+        <v>124.07571592359349</v>
       </c>
       <c r="CE8" s="2">
         <f t="shared" ref="CE8" ca="1" si="135">CD7*$B$4</f>
-        <v>27.743520058031276</v>
+        <v>128.63459635399016</v>
       </c>
       <c r="CF8" s="2">
         <f t="shared" ref="CF8" ca="1" si="136">CE7*$B$4</f>
-        <v>28.854083994875072</v>
+        <v>133.36098249349314</v>
       </c>
       <c r="CG8" s="2">
         <f t="shared" ref="CG8" ca="1" si="137">CF7*$B$4</f>
-        <v>30.009103438995449</v>
+        <v>138.26102895901147</v>
       </c>
       <c r="CH8" s="2">
         <f t="shared" ref="CH8" ca="1" si="138">CG7*$B$4</f>
-        <v>31.210357929653203</v>
+        <v>143.3411165048766</v>
       </c>
       <c r="CI8" s="2">
         <f t="shared" ref="CI8" ca="1" si="139">CH7*$B$4</f>
-        <v>32.459698240477451</v>
+        <v>148.60786033174847</v>
       </c>
       <c r="CJ8" s="2">
         <f t="shared" ref="CJ8" ca="1" si="140">CI7*$B$4</f>
-        <v>33.759049230953899</v>
+        <v>154.06811870081344</v>
       </c>
       <c r="CK8" s="2">
         <f t="shared" ref="CK8" ca="1" si="141">CJ7*$B$4</f>
-        <v>35.11041281205717</v>
+        <v>159.72900186449147</v>
       </c>
       <c r="CL8" s="2">
         <f t="shared" ref="CL8" ca="1" si="142">CK7*$B$4</f>
-        <v>36.515871030596429</v>
+        <v>165.59788132528175</v>
       </c>
       <c r="CM8" s="2">
         <f t="shared" ref="CM8" ca="1" si="143">CL7*$B$4</f>
-        <v>37.977589277026368</v>
+        <v>171.68239943480347</v>
       </c>
       <c r="CN8" s="2">
         <f t="shared" ref="CN8" ca="1" si="144">CM7*$B$4</f>
-        <v>39.497819621665769</v>
+        <v>177.99047934553192</v>
       </c>
       <c r="CO8" s="2">
         <f t="shared" ref="CO8" ca="1" si="145">CN7*$B$4</f>
-        <v>41.078904284463817</v>
+        <v>184.53033532818816</v>
       </c>
       <c r="CP8" s="2">
         <f t="shared" ref="CP8" ca="1" si="146">CO7*$B$4</f>
-        <v>42.723279243659995</v>
+        <v>191.31048346821791</v>
       </c>
       <c r="CQ8" s="2">
         <f t="shared" ref="CQ8" ca="1" si="147">CP7*$B$4</f>
-        <v>44.433477988897465</v>
+        <v>198.33975275528832</v>
       </c>
       <c r="CR8" s="2">
         <f t="shared" ref="CR8" ca="1" si="148">CQ7*$B$4</f>
-        <v>46.212135424572331</v>
+        <v>205.62729658024284</v>
       </c>
       <c r="CS8" s="2">
         <f t="shared" ref="CS8" ca="1" si="149">CR7*$B$4</f>
-        <v>48.061991929432637</v>
+        <v>213.18260465448614</v>
       </c>
       <c r="CT8" s="2">
         <f t="shared" ref="CT8" ca="1" si="150">CS7*$B$4</f>
-        <v>49.985897578681858</v>
+        <v>221.01551536731907</v>
       </c>
       <c r="CU8" s="2">
         <f t="shared" ref="CU8" ca="1" si="151">CT7*$B$4</f>
-        <v>51.986816535091705</v>
+        <v>229.13622859731632</v>
       </c>
       <c r="CV8" s="2">
         <f t="shared" ref="CV8" ca="1" si="152">CU7*$B$4</f>
-        <v>54.067831615889794</v>
+        <v>237.555318994429</v>
       </c>
       <c r="CW8" s="2">
         <f t="shared" ref="CW8" ca="1" si="153">CV7*$B$4</f>
-        <v>56.232149042458296</v>
+        <v>246.28374975010766</v>
       </c>
       <c r="CX8" s="2">
         <f t="shared" ref="CX8" ca="1" si="154">CW7*$B$4</f>
-        <v>58.483103380161431</v>
+        <v>255.33288687337753</v>
       </c>
       <c r="CY8" s="2">
         <f t="shared" ref="CY8" ca="1" si="155">CX7*$B$4</f>
-        <v>60.82416267591266</v>
+        <v>264.71451399145559</v>
       </c>
       <c r="CZ8" s="2">
         <f t="shared" ref="CZ8" ca="1" si="156">CY7*$B$4</f>
-        <v>63.25893380139695</v>
+        <v>274.44084769418248</v>
       </c>
       <c r="DA8" s="2">
         <f t="shared" ref="DA8" ca="1" si="157">CZ7*$B$4</f>
-        <v>65.791168010180527</v>
+        <v>284.52455344225126</v>
       </c>
       <c r="DB8" s="2">
         <f t="shared" ref="DB8" ca="1" si="158">DA7*$B$4</f>
-        <v>68.424766717269847</v>
+        <v>294.97876205994726</v>
       </c>
       <c r="DC8" s="2">
         <f t="shared" ref="DC8" ca="1" si="159">DB7*$B$4</f>
-        <v>71.163787510024349</v>
+        <v>305.81708683387677</v>
       </c>
       <c r="DD8" s="2">
         <f t="shared" ref="DD8" ca="1" si="160">DC7*$B$4</f>
-        <v>74.012450399684212</v>
+        <v>317.05364123994951</v>
       </c>
       <c r="DE8" s="2">
         <f t="shared" ref="DE8" ca="1" si="161">DD7*$B$4</f>
-        <v>76.975144323144548</v>
+        <v>328.70305732169834</v>
       </c>
       <c r="DF8" s="2">
         <f t="shared" ref="DF8" ca="1" si="162">DE7*$B$4</f>
-        <v>80.056433904993554</v>
+        <v>340.78050474386953</v>
       </c>
       <c r="DG8" s="2">
         <f t="shared" ref="DG8" ca="1" si="163">DF7*$B$4</f>
-        <v>83.26106649023275</v>
+        <v>353.30171054609298</v>
       </c>
       <c r="DH8" s="2">
         <f t="shared" ref="DH8" ca="1" si="164">DG7*$B$4</f>
-        <v>86.593979458514795</v>
+        <v>366.28297962235689</v>
       </c>
       <c r="DI8" s="2">
         <f t="shared" ref="DI8" ca="1" si="165">DH7*$B$4</f>
-        <v>90.060307831167705</v>
+        <v>379.74121595295401</v>
       </c>
       <c r="DJ8" s="2">
         <f t="shared" ref="DJ8" ca="1" si="166">DI7*$B$4</f>
-        <v>93.665392182725753</v>
+        <v>393.69394461654713</v>
       </c>
       <c r="DK8" s="2">
         <f t="shared" ref="DK8" ca="1" si="167">DJ7*$B$4</f>
-        <v>97.414786869156444</v>
+        <v>408.15933461101872</v>
       </c>
       <c r="DL8" s="2">
         <f t="shared" ref="DL8" ca="1" si="168">DK7*$B$4</f>
-        <v>101.31426858546055</v>
+        <v>423.15622251282025</v>
       </c>
       <c r="DM8" s="2">
         <f t="shared" ref="DM8" ca="1" si="169">DL7*$B$4</f>
-        <v>105.36984526583016</v>
+        <v>438.70413700563074</v>
       </c>
       <c r="DN8" s="2">
         <f t="shared" ref="DN8" ca="1" si="170">DM7*$B$4</f>
-        <v>109.58776534007707</v>
+        <v>454.82332431026526</v>
       </c>
       <c r="DO8" s="2">
         <f t="shared" ref="DO8" ca="1" si="171">DN7*$B$4</f>
-        <v>113.97452736059286</v>
+        <v>471.53477454894772</v>
       </c>
       <c r="DP8" s="2">
         <f t="shared" ref="DP8" ca="1" si="172">DO7*$B$4</f>
-        <v>118.53689001467319</v>
+        <v>488.86024907827851</v>
       </c>
       <c r="DQ8" s="2">
         <f t="shared" ref="DQ8" ca="1" si="173">DP7*$B$4</f>
-        <v>123.28188253763196</v>
+        <v>506.82230882649094</v>
       </c>
       <c r="DR8" s="2">
         <f t="shared" ref="DR8" ca="1" si="174">DQ7*$B$4</f>
-        <v>128.21681554274906</v>
+        <v>525.44434367189444</v>
       </c>
       <c r="DS8" s="2">
         <f t="shared" ref="DS8" ca="1" si="175">DR7*$B$4</f>
-        <v>133.34929228473729</v>
+        <v>544.75060290076351</v>
       </c>
       <c r="DT8" s="2">
         <f t="shared" ref="DT8" ca="1" si="176">DS7*$B$4</f>
-        <v>138.68722037408227</v>
+        <v>564.76622678433159</v>
       </c>
       <c r="DU8" s="2">
         <f t="shared" ref="DU8" ca="1" si="177">DT7*$B$4</f>
-        <v>144.23882396030336</v>
+        <v>585.51727931600976</v>
       </c>
       <c r="DV8" s="2">
         <f t="shared" ref="DV8" ca="1" si="178">DU7*$B$4</f>
-        <v>150.01265640290654</v>
+        <v>607.03078215146093</v>
       </c>
     </row>
     <row r="9" spans="1:127" x14ac:dyDescent="0.35">
@@ -3611,499 +3624,499 @@
       </c>
       <c r="C9" s="2">
         <f ca="1">SUM($B8:C8)</f>
-        <v>1.2008900830040525</v>
+        <v>6.5402057974851653</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">SUM($B8:D8)</f>
-        <v>2.4498513990566879</v>
+        <v>13.320716605495377</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">SUM($B8:E8)</f>
-        <v>3.7488082237260993</v>
+        <v>20.350361885957607</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">SUM($B8:F8)</f>
-        <v>5.0997618606953754</v>
+        <v>27.638295519327386</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">SUM($B8:G8)</f>
-        <v>6.5047937251724735</v>
+        <v>35.194007724610941</v>
       </c>
       <c r="H9" s="2">
         <f ca="1">SUM($B8:H8)</f>
-        <v>7.96606855072808</v>
+        <v>43.027337417361487</v>
       </c>
       <c r="I9" s="2">
         <f ca="1">SUM($B8:I8)</f>
-        <v>9.4858377245021259</v>
+        <v>51.148485021742033</v>
       </c>
       <c r="J9" s="2">
         <f ca="1">SUM($B8:J8)</f>
-        <v>11.066442755917523</v>
+        <v>59.568025753338326</v>
       </c>
       <c r="K9" s="2">
         <f ca="1">SUM($B8:K8)</f>
-        <v>12.710318884245355</v>
+        <v>68.296923390018591</v>
       </c>
       <c r="L9" s="2">
         <f ca="1">SUM($B8:L8)</f>
-        <v>14.41999883057972</v>
+        <v>77.3465445487723</v>
       </c>
       <c r="M9" s="2">
         <f ca="1">SUM($B8:M8)</f>
-        <v>16.198116700002881</v>
+        <v>86.72867348711884</v>
       </c>
       <c r="N9" s="2">
         <f ca="1">SUM($B8:N8)</f>
-        <v>18.047412039952793</v>
+        <v>96.455527448360485</v>
       </c>
       <c r="O9" s="2">
         <f ca="1">SUM($B8:O8)</f>
-        <v>19.970734061045754</v>
+        <v>106.5397725706617</v>
       </c>
       <c r="P9" s="2">
         <f ca="1">SUM($B8:P8)</f>
-        <v>21.971046026857174</v>
+        <v>116.99454038067154</v>
       </c>
       <c r="Q9" s="2">
         <f ca="1">SUM($B8:Q8)</f>
-        <v>24.051429819423838</v>
+        <v>127.8334448931667</v>
       </c>
       <c r="R9" s="2">
         <f ca="1">SUM($B8:R8)</f>
-        <v>26.215090687501693</v>
+        <v>139.07060033898213</v>
       </c>
       <c r="S9" s="2">
         <f ca="1">SUM($B8:S8)</f>
-        <v>28.465362184894833</v>
+        <v>150.72063954431422</v>
       </c>
       <c r="T9" s="7">
         <f ca="1">SUM($B8:T8)</f>
-        <v>30.805711306464175</v>
+        <v>162.79873298532971</v>
       </c>
       <c r="U9" s="2">
         <f ca="1">SUM($B8:U8)</f>
-        <v>33.239743829728852</v>
+        <v>175.32060854289293</v>
       </c>
       <c r="V9" s="2">
         <f ca="1">SUM($B8:V8)</f>
-        <v>35.771209870290122</v>
+        <v>188.30257198313572</v>
       </c>
       <c r="W9" s="2">
         <f ca="1">SUM($B8:W8)</f>
-        <v>38.404009659637111</v>
+        <v>201.76152819053928</v>
       </c>
       <c r="X9" s="2">
         <f ca="1">SUM($B8:X8)</f>
-        <v>41.142199554236164</v>
+        <v>215.71500318117745</v>
       </c>
       <c r="Y9" s="2">
         <f ca="1">SUM($B8:Y8)</f>
-        <v>43.989998285162081</v>
+        <v>230.1811669247866</v>
       </c>
       <c r="Z9" s="2">
         <f ca="1">SUM($B8:Z8)</f>
-        <v>46.95179345790001</v>
+        <v>245.17885700538071</v>
       </c>
       <c r="AA9" s="2">
         <f ca="1">SUM($B8:AA8)</f>
-        <v>50.032148312332282</v>
+        <v>260.7276031512219</v>
       </c>
       <c r="AB9" s="2">
         <f ca="1">SUM($B8:AB8)</f>
-        <v>53.235808753325259</v>
+        <v>276.84765266608929</v>
       </c>
       <c r="AC9" s="2">
         <f ca="1">SUM($B8:AC8)</f>
-        <v>56.567710662748269</v>
+        <v>293.55999679496165</v>
       </c>
       <c r="AD9" s="2">
         <f ca="1">SUM($B8:AD8)</f>
-        <v>60.032987504190224</v>
+        <v>310.88639805844758</v>
       </c>
       <c r="AE9" s="2">
         <f ca="1">SUM($B8:AE8)</f>
-        <v>63.636978232090549</v>
+        <v>328.84941859155714</v>
       </c>
       <c r="AF9" s="2">
         <f ca="1">SUM($B8:AF8)</f>
-        <v>67.385235517470008</v>
+        <v>347.47244952371716</v>
       </c>
       <c r="AG9" s="2">
         <f ca="1">SUM($B8:AG8)</f>
-        <v>71.283534302934797</v>
+        <v>366.7797414382888</v>
       </c>
       <c r="AH9" s="2">
         <f ca="1">SUM($B8:AH8)</f>
-        <v>75.337880700134633</v>
+        <v>386.79643595125037</v>
       </c>
       <c r="AI9" s="2">
         <f ca="1">SUM($B8:AI8)</f>
-        <v>79.554521243383149</v>
+        <v>407.54859845016796</v>
       </c>
       <c r="AJ9" s="2">
         <f ca="1">SUM($B8:AJ8)</f>
-        <v>83.939952513697676</v>
+        <v>429.06325203608424</v>
       </c>
       <c r="AK9" s="2">
         <f ca="1">SUM($B8:AK8)</f>
-        <v>88.500931148086082</v>
+        <v>451.36841271252581</v>
       </c>
       <c r="AL9" s="2">
         <f ca="1">SUM($B8:AL8)</f>
-        <v>93.244484249502165</v>
+        <v>474.49312586744998</v>
       </c>
       <c r="AM9" s="2">
         <f ca="1">SUM($B8:AM8)</f>
-        <v>98.177920213508045</v>
+        <v>498.46750409563828</v>
       </c>
       <c r="AN9" s="2">
         <f ca="1">SUM($B8:AN8)</f>
-        <v>103.30883998832427</v>
+        <v>523.32276641078784</v>
       </c>
       <c r="AO9" s="2">
         <f ca="1">SUM($B8:AO8)</f>
-        <v>108.64514878561602</v>
+        <v>549.09127889836179</v>
       </c>
       <c r="AP9" s="2">
         <f ca="1">SUM($B8:AP8)</f>
-        <v>114.19506826005826</v>
+        <v>575.80659686213687</v>
       </c>
       <c r="AQ9" s="2">
         <f ca="1">SUM($B8:AQ8)</f>
-        <v>119.96714917644481</v>
+        <v>603.50350851932967</v>
       </c>
       <c r="AR9" s="2">
         <f ca="1">SUM($B8:AR8)</f>
-        <v>125.97028458385753</v>
+        <v>632.2180803012011</v>
       </c>
       <c r="AS9" s="2">
         <f ca="1">SUM($B8:AS8)</f>
-        <v>132.21372351719336</v>
+        <v>661.98770381812926</v>
       </c>
       <c r="AT9" s="2">
         <f ca="1">SUM($B8:AT8)</f>
-        <v>138.70708524715866</v>
+        <v>692.85114455030669</v>
       </c>
       <c r="AU9" s="2">
         <f ca="1">SUM($B8:AU8)</f>
-        <v>145.46037410068641</v>
+        <v>724.8485923274668</v>
       </c>
       <c r="AV9" s="2">
         <f ca="1">SUM($B8:AV8)</f>
-        <v>152.48399487460958</v>
+        <v>758.0217136633737</v>
       </c>
       <c r="AW9" s="2">
         <f ca="1">SUM($B8:AW8)</f>
-        <v>159.78876886633896</v>
+        <v>792.41370601322308</v>
       </c>
       <c r="AX9" s="2">
         <f ca="1">SUM($B8:AX8)</f>
-        <v>167.38595054624344</v>
+        <v>828.06935402460931</v>
       </c>
       <c r="AY9" s="2">
         <f ca="1">SUM($B8:AY8)</f>
-        <v>175.28724489742052</v>
+        <v>865.03508785530539</v>
       </c>
       <c r="AZ9" s="2">
         <f ca="1">SUM($B8:AZ8)</f>
-        <v>183.50482544957174</v>
+        <v>903.35904363379814</v>
       </c>
       <c r="BA9" s="2">
         <f ca="1">SUM($B8:BA8)</f>
-        <v>192.05135303476848</v>
+        <v>943.09112614130811</v>
       </c>
       <c r="BB9" s="2">
         <f ca="1">SUM($B8:BB8)</f>
-        <v>200.93999529400466</v>
+        <v>984.28307379691796</v>
       </c>
       <c r="BC9" s="2">
         <f ca="1">SUM($B8:BC8)</f>
-        <v>210.18444696459042</v>
+        <v>1026.988526030432</v>
       </c>
       <c r="BD9" s="2">
         <f ca="1">SUM($B8:BD8)</f>
-        <v>219.79895097964339</v>
+        <v>1071.2630931306981</v>
       </c>
       <c r="BE9" s="2">
         <f ca="1">SUM($B8:BE8)</f>
-        <v>229.79832041218569</v>
+        <v>1117.1644286603478</v>
       </c>
       <c r="BF9" s="2">
         <f ca="1">SUM($B8:BF8)</f>
-        <v>240.19796129765578</v>
+        <v>1164.7523045312521</v>
       </c>
       <c r="BG9" s="2">
         <f ca="1">SUM($B8:BG8)</f>
-        <v>251.01389636999804</v>
+        <v>1214.0886888384537</v>
       </c>
       <c r="BH9" s="2">
         <f ca="1">SUM($B8:BH8)</f>
-        <v>262.2627897479</v>
+        <v>1265.2378265539301</v>
       </c>
       <c r="BI9" s="2">
         <f ca="1">SUM($B8:BI8)</f>
-        <v>273.96197260921173</v>
+        <v>1318.2663231852666</v>
       </c>
       <c r="BJ9" s="2">
         <f ca="1">SUM($B8:BJ8)</f>
-        <v>286.12946989310348</v>
+        <v>1373.2432315081774</v>
       </c>
       <c r="BK9" s="2">
         <f ca="1">SUM($B8:BK8)</f>
-        <v>298.784028071102</v>
+        <v>1435.7515508657177</v>
       </c>
       <c r="BL9" s="2">
         <f ca="1">SUM($B8:BL8)</f>
-        <v>311.9451440297924</v>
+        <v>1500.556596474119</v>
       </c>
       <c r="BM9" s="2">
         <f ca="1">SUM($B8:BM8)</f>
-        <v>325.63309510968475</v>
+        <v>1567.7427563240617</v>
       </c>
       <c r="BN9" s="2">
         <f ca="1">SUM($B8:BN8)</f>
-        <v>339.86897034652668</v>
+        <v>1637.3975190513152</v>
       </c>
       <c r="BO9" s="2">
         <f ca="1">SUM($B8:BO8)</f>
-        <v>354.6747029631955</v>
+        <v>1709.6115878629016</v>
       </c>
       <c r="BP9" s="2">
         <f ca="1">SUM($B8:BP8)</f>
-        <v>370.07310416222987</v>
+        <v>1784.4789986492156</v>
       </c>
       <c r="BQ9" s="2">
         <f ca="1">SUM($B8:BQ8)</f>
-        <v>386.08789827106551</v>
+        <v>1862.0972424359079</v>
       </c>
       <c r="BR9" s="2">
         <f ca="1">SUM($B8:BR8)</f>
-        <v>402.74375929412292</v>
+        <v>1942.5673923349843</v>
       </c>
       <c r="BS9" s="2">
         <f ca="1">SUM($B8:BS8)</f>
-        <v>420.06634892806312</v>
+        <v>2025.9942351604341</v>
       </c>
       <c r="BT9" s="2">
         <f ca="1">SUM($B8:BT8)</f>
-        <v>438.08235609878153</v>
+        <v>2112.4864078797764</v>
       </c>
       <c r="BU9" s="2">
         <f ca="1">SUM($B8:BU8)</f>
-        <v>456.81953808105482</v>
+        <v>2202.1565390792093</v>
       </c>
       <c r="BV9" s="2">
         <f ca="1">SUM($B8:BV8)</f>
-        <v>476.30676326419325</v>
+        <v>2295.1213956265738</v>
       </c>
       <c r="BW9" s="2">
         <f ca="1">SUM($B8:BW8)</f>
-        <v>496.57405562958826</v>
+        <v>2391.5020347231148</v>
       </c>
       <c r="BX9" s="2">
         <f ca="1">SUM($B8:BX8)</f>
-        <v>517.65264100868148</v>
+        <v>2491.4239615420406</v>
       </c>
       <c r="BY9" s="2">
         <f ca="1">SUM($B8:BY8)</f>
-        <v>539.57499519262501</v>
+        <v>2595.0172926591522</v>
       </c>
       <c r="BZ9" s="2">
         <f ca="1">SUM($B8:BZ8)</f>
-        <v>562.37489396775516</v>
+        <v>2702.4169254883586</v>
       </c>
       <c r="CA9" s="2">
         <f ca="1">SUM($B8:CA8)</f>
-        <v>586.08746515397024</v>
+        <v>2813.7627139427191</v>
       </c>
       <c r="CB9" s="2">
         <f ca="1">SUM($B8:CB8)</f>
-        <v>610.74924272618716</v>
+        <v>2929.1996505497464</v>
       </c>
       <c r="CC9" s="2">
         <f ca="1">SUM($B8:CC8)</f>
-        <v>636.39822310226168</v>
+        <v>3048.8780552581288</v>
       </c>
       <c r="CD9" s="2">
         <f ca="1">SUM($B8:CD8)</f>
-        <v>663.07392368409592</v>
+        <v>3172.9537711817225</v>
       </c>
       <c r="CE9" s="2">
         <f ca="1">SUM($B8:CE8)</f>
-        <v>690.81744374212724</v>
+        <v>3301.5883675357127</v>
       </c>
       <c r="CF9" s="2">
         <f ca="1">SUM($B8:CF8)</f>
-        <v>719.67152773700229</v>
+        <v>3434.949350029206</v>
       </c>
       <c r="CG9" s="2">
         <f ca="1">SUM($B8:CG8)</f>
-        <v>749.68063117599775</v>
+        <v>3573.2103789882176</v>
       </c>
       <c r="CH9" s="2">
         <f ca="1">SUM($B8:CH8)</f>
-        <v>780.89098910565099</v>
+        <v>3716.5514954930941</v>
       </c>
       <c r="CI9" s="2">
         <f ca="1">SUM($B8:CI8)</f>
-        <v>813.35068734612844</v>
+        <v>3865.1593558248424</v>
       </c>
       <c r="CJ9" s="2">
         <f ca="1">SUM($B8:CJ8)</f>
-        <v>847.10973657708234</v>
+        <v>4019.2274745256559</v>
       </c>
       <c r="CK9" s="2">
         <f ca="1">SUM($B8:CK8)</f>
-        <v>882.22014938913946</v>
+        <v>4178.9564763901471</v>
       </c>
       <c r="CL9" s="2">
         <f ca="1">SUM($B8:CL8)</f>
-        <v>918.73602041973595</v>
+        <v>4344.5543577154285</v>
       </c>
       <c r="CM9" s="2">
         <f ca="1">SUM($B8:CM8)</f>
-        <v>956.71360969676232</v>
+        <v>4516.2367571502318</v>
       </c>
       <c r="CN9" s="2">
         <f ca="1">SUM($B8:CN8)</f>
-        <v>996.21142931842815</v>
+        <v>4694.2272364957635</v>
       </c>
       <c r="CO9" s="2">
         <f ca="1">SUM($B8:CO8)</f>
-        <v>1037.2903336028919</v>
+        <v>4878.7575718239514</v>
       </c>
       <c r="CP9" s="2">
         <f ca="1">SUM($B8:CP8)</f>
-        <v>1080.013612846552</v>
+        <v>5070.0680552921694</v>
       </c>
       <c r="CQ9" s="2">
         <f ca="1">SUM($B8:CQ8)</f>
-        <v>1124.4470908354494</v>
+        <v>5268.4078080474574</v>
       </c>
       <c r="CR9" s="2">
         <f ca="1">SUM($B8:CR8)</f>
-        <v>1170.6592262600218</v>
+        <v>5474.0351046277001</v>
       </c>
       <c r="CS9" s="2">
         <f ca="1">SUM($B8:CS8)</f>
-        <v>1218.7212181894545</v>
+        <v>5687.2177092821867</v>
       </c>
       <c r="CT9" s="2">
         <f ca="1">SUM($B8:CT8)</f>
-        <v>1268.7071157681364</v>
+        <v>5908.2332246495062</v>
       </c>
       <c r="CU9" s="2">
         <f ca="1">SUM($B8:CU8)</f>
-        <v>1320.6939323032282</v>
+        <v>6137.3694532468226</v>
       </c>
       <c r="CV9" s="2">
         <f ca="1">SUM($B8:CV8)</f>
-        <v>1374.761763919118</v>
+        <v>6374.924772241252</v>
       </c>
       <c r="CW9" s="2">
         <f ca="1">SUM($B8:CW8)</f>
-        <v>1430.9939129615764</v>
+        <v>6621.2085219913597</v>
       </c>
       <c r="CX9" s="2">
         <f ca="1">SUM($B8:CX8)</f>
-        <v>1489.4770163417379</v>
+        <v>6876.5414088647376</v>
       </c>
       <c r="CY9" s="2">
         <f ca="1">SUM($B8:CY8)</f>
-        <v>1550.3011790176506</v>
+        <v>7141.2559228561931</v>
       </c>
       <c r="CZ9" s="2">
         <f ca="1">SUM($B8:CZ8)</f>
-        <v>1613.5601128190476</v>
+        <v>7415.6967705503757</v>
       </c>
       <c r="DA9" s="2">
         <f ca="1">SUM($B8:DA8)</f>
-        <v>1679.3512808292282</v>
+        <v>7700.2213239926268</v>
       </c>
       <c r="DB9" s="2">
         <f ca="1">SUM($B8:DB8)</f>
-        <v>1747.7760475464981</v>
+        <v>7995.2000860525741</v>
       </c>
       <c r="DC9" s="2">
         <f ca="1">SUM($B8:DC8)</f>
-        <v>1818.9398350565225</v>
+        <v>8301.0171728864516</v>
       </c>
       <c r="DD9" s="2">
         <f ca="1">SUM($B8:DD8)</f>
-        <v>1892.9522854562067</v>
+        <v>8618.0708141264004</v>
       </c>
       <c r="DE9" s="2">
         <f ca="1">SUM($B8:DE8)</f>
-        <v>1969.9274297793513</v>
+        <v>8946.7738714480984</v>
       </c>
       <c r="DF9" s="2">
         <f ca="1">SUM($B8:DF8)</f>
-        <v>2049.9838636843447</v>
+        <v>9287.5543761919671</v>
       </c>
       <c r="DG9" s="2">
         <f ca="1">SUM($B8:DG8)</f>
-        <v>2133.2449301745773</v>
+        <v>9640.8560867380602</v>
       </c>
       <c r="DH9" s="2">
         <f ca="1">SUM($B8:DH8)</f>
-        <v>2219.838909633092</v>
+        <v>10007.139066360418</v>
       </c>
       <c r="DI9" s="2">
         <f ca="1">SUM($B8:DI8)</f>
-        <v>2309.8992174642599</v>
+        <v>10386.880282313372</v>
       </c>
       <c r="DJ9" s="2">
         <f ca="1">SUM($B8:DJ8)</f>
-        <v>2403.5646096469854</v>
+        <v>10780.574226929919</v>
       </c>
       <c r="DK9" s="2">
         <f ca="1">SUM($B8:DK8)</f>
-        <v>2500.9793965161421</v>
+        <v>11188.733561540937</v>
       </c>
       <c r="DL9" s="2">
         <f ca="1">SUM($B8:DL8)</f>
-        <v>2602.2936651016025</v>
+        <v>11611.889784053757</v>
       </c>
       <c r="DM9" s="2">
         <f ca="1">SUM($B8:DM8)</f>
-        <v>2707.6635103674325</v>
+        <v>12050.593921059388</v>
       </c>
       <c r="DN9" s="2">
         <f ca="1">SUM($B8:DN8)</f>
-        <v>2817.2512757075096</v>
+        <v>12505.417245369654</v>
       </c>
       <c r="DO9" s="2">
         <f ca="1">SUM($B8:DO8)</f>
-        <v>2931.2258030681023</v>
+        <v>12976.952019918601</v>
       </c>
       <c r="DP9" s="2">
         <f ca="1">SUM($B8:DP8)</f>
-        <v>3049.7626930827755</v>
+        <v>13465.812268996879</v>
       </c>
       <c r="DQ9" s="2">
         <f ca="1">SUM($B8:DQ8)</f>
-        <v>3173.0445756204076</v>
+        <v>13972.63457782337</v>
       </c>
       <c r="DR9" s="2">
         <f ca="1">SUM($B8:DR8)</f>
-        <v>3301.2613911631565</v>
+        <v>14498.078921495264</v>
       </c>
       <c r="DS9" s="2">
         <f ca="1">SUM($B8:DS8)</f>
-        <v>3434.6106834478937</v>
+        <v>15042.829524396027</v>
       </c>
       <c r="DT9" s="2">
         <f ca="1">SUM($B8:DT8)</f>
-        <v>3573.297903821976</v>
+        <v>15607.595751180359</v>
       </c>
       <c r="DU9" s="2">
         <f ca="1">SUM($B8:DU8)</f>
-        <v>3717.5367277822793</v>
+        <v>16193.113030496368</v>
       </c>
       <c r="DV9" s="2">
         <f ca="1">SUM($B8:DV8)</f>
-        <v>3867.5493841851858</v>
+        <v>16800.143812647828</v>
       </c>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.35">
@@ -4169,7 +4182,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="J2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
